--- a/Manufacturing Files/bitaxeSupra BOM.xlsx
+++ b/Manufacturing Files/bitaxeSupra BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skot/Work/Bitcoin/bitaxe/bitaxeSupra/Manufacturing Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E814A4A2-C7FC-BF42-98E5-79114A1AEC8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C0B00E-B9B1-2447-8ECC-D0FB21CE2644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26760" windowHeight="26060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,12 +395,6 @@
     <t>4.99k</t>
   </si>
   <si>
-    <t>311-4.99KLRCT-ND</t>
-  </si>
-  <si>
-    <t>RC0402FR-074K99L</t>
-  </si>
-  <si>
     <t>R15</t>
   </si>
   <si>
@@ -582,6 +576,12 @@
   </si>
   <si>
     <t>CP-036AHPJCT-ND</t>
+  </si>
+  <si>
+    <t>YAG3498CT-ND</t>
+  </si>
+  <si>
+    <t>AC0402FR-074K99L</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1271,7 @@
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
@@ -1540,10 +1540,10 @@
         <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1551,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>127</v>
-      </c>
-      <c r="D34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1568,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
         <v>111</v>
@@ -1602,16 +1602,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
         <v>135</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
         <v>139</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1636,16 +1636,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
         <v>147</v>
       </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1670,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1681,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
         <v>152</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,16 +1698,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>157</v>
-      </c>
-      <c r="D43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
         <v>160</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1732,16 +1732,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
         <v>164</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>165</v>
-      </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,16 +1749,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
         <v>168</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>169</v>
-      </c>
-      <c r="D46" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1766,16 +1766,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
         <v>172</v>
       </c>
-      <c r="C47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D47" t="s">
-        <v>174</v>
-      </c>
       <c r="E47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
         <v>175</v>
       </c>
-      <c r="C48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" t="s">
-        <v>177</v>
-      </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1800,16 +1800,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
         <v>178</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>179</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
         <v>182</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>183</v>
-      </c>
-      <c r="D50" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2032,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
         <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,10 +2205,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
         <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
         <v>112</v>
@@ -2227,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
         <v>135</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
         <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
         <v>152</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
         <v>156</v>
-      </c>
-      <c r="C40" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
         <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,10 +2304,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>164</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
-      </c>
-      <c r="C44" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
         <v>175</v>
-      </c>
-      <c r="C45" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" t="s">
         <v>178</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
         <v>182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Manufacturing Files/bitaxeSupra BOM.xlsx
+++ b/Manufacturing Files/bitaxeSupra BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skot/Work/Bitcoin/bitaxe/bitaxe-401/Manufacturing Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC24B48F-08D9-C244-8214-3C3CCF2C3EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6555D4-7A4E-5644-83F4-B953E9C0BCC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27880" windowHeight="23940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27880" windowHeight="23940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
   <si>
     <t>Qty</t>
   </si>
@@ -89,18 +89,6 @@
     <t>865080345012</t>
   </si>
   <si>
-    <t>C30, C31</t>
-  </si>
-  <si>
-    <t>6.8pF</t>
-  </si>
-  <si>
-    <t>399-C0402C689C5GAC7867CT-ND</t>
-  </si>
-  <si>
-    <t>C0402C689C5GAC7867</t>
-  </si>
-  <si>
     <t>C34, C36, C37</t>
   </si>
   <si>
@@ -552,18 +540,6 @@
   </si>
   <si>
     <t>ESP32-S3-WROOM-1-N16R8</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>728-1074-1-ND</t>
-  </si>
-  <si>
-    <t>SC32S-7PF20PPM</t>
   </si>
 </sst>
 </file>
@@ -954,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1033,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1074,19 +1050,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1142,7 +1118,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -1159,7 +1135,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1182,13 +1158,13 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -1222,7 +1198,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1230,16 +1206,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1267,13 +1243,13 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
@@ -1295,7 +1271,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1307,29 +1283,29 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1346,7 +1322,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -1363,7 +1339,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -1380,7 +1356,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -1428,6 +1404,9 @@
       <c r="E27" t="s">
         <v>104</v>
       </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1445,9 +1424,6 @@
       <c r="E28" t="s">
         <v>108</v>
       </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1525,13 +1501,13 @@
         <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,21 +1515,21 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
         <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -1570,7 +1546,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
@@ -1599,7 +1575,7 @@
         <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1607,16 +1583,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,9 +1594,15 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1712,7 +1688,7 @@
         <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1720,16 +1696,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
         <v>167</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>168</v>
       </c>
-      <c r="D45" t="s">
-        <v>169</v>
-      </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,50 +1713,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
         <v>170</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>171</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>172</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1790,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1801,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1870,13 +1812,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1884,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1914,7 +1856,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -1925,7 +1867,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1942,7 +1884,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1950,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1972,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1997,7 +1939,7 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -2013,7 +1955,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -2024,18 +1966,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -2046,7 +1988,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -2057,7 +1999,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
@@ -2068,7 +2010,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>93</v>
@@ -2093,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2151,7 +2093,7 @@
         <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,15 +2101,15 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>130</v>
@@ -2178,7 +2120,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
@@ -2203,10 +2145,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2269,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2280,32 +2222,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Manufacturing Files/bitaxeSupra BOM.xlsx
+++ b/Manufacturing Files/bitaxeSupra BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId3"/>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">330uF</t>
   </si>
   <si>
-    <t xml:space="preserve">718-1028-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293D337X9010E2TE3</t>
+    <t xml:space="preserve">490-GRM32ER60G337ME05KTR-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM32ER60G337ME05K </t>
   </si>
   <si>
     <t xml:space="preserve">C28</t>
@@ -623,13 +623,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -886,779 +894,779 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="30.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="30.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1680,497 +1688,497 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="30.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="30.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>167</v>
       </c>
     </row>

--- a/Manufacturing Files/bitaxeSupra BOM.xlsx
+++ b/Manufacturing Files/bitaxeSupra BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skot/Work/Bitcoin/bitaxe/bitaxe-401/Manufacturing Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skot/Bitcoin/bitaxe/bitaxe-401/Manufacturing Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6555D4-7A4E-5644-83F4-B953E9C0BCC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A86A1-90E9-9D49-88E4-27D7255E707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="27880" windowHeight="23940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27880" windowHeight="23940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="173">
   <si>
     <t>Qty</t>
   </si>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1493,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1526,8 +1526,11 @@
       <c r="E34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1732,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2098,24 +2101,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2181,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,20 +2214,9 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" t="s">
         <v>171</v>
       </c>
     </row>
